--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -113,8 +113,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,1271 +311,1311 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F4"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="D2" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="n">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <v>14</v>
       </c>
     </row>

--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\My-Applications\GitHub\repository\6-digits-lottery\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE38DED-329E-46A3-BD3D-F0935B382CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="32325" yWindow="2805" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-data-joker" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="1-data-joker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,53 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">1st_number</t>
+    <t>1st_number</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd_number</t>
+    <t>2nd_number</t>
   </si>
   <si>
-    <t xml:space="preserve">3rd_number</t>
+    <t>3rd_number</t>
   </si>
   <si>
-    <t xml:space="preserve">4th_number</t>
+    <t>4th_number</t>
   </si>
   <si>
-    <t xml:space="preserve">5th_number</t>
+    <t>5th_number</t>
   </si>
   <si>
-    <t xml:space="preserve">6th_number</t>
+    <t>6th_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +67,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -88,101 +75,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -214,7 +177,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -238,7 +201,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -298,1334 +261,1348 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B3">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C3">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E3">
         <v>39</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F3">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C4">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D4">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E4">
         <v>35</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F4">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C5">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D5">
         <v>39</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F5">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C6">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D6">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E6">
         <v>42</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F6">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>36</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7">
         <v>35</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C7">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D7">
         <v>19</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E7">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F7">
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C8">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F8">
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D9">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E9">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F9">
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C10">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D10">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E10">
         <v>39</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C11">
         <v>30</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D11">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E11">
         <v>16</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F11">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C12">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D12">
         <v>5</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E12">
         <v>34</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F12">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D13">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E13">
         <v>22</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F13">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>14</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14">
         <v>35</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C14">
         <v>32</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D14">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E14">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F14">
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C15">
         <v>20</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D15">
         <v>35</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F15">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16">
         <v>16</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C16">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E16">
         <v>11</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F16">
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>31</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C17">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D17">
         <v>21</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E17">
         <v>13</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F17">
         <v>3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>29</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C18">
         <v>14</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D18">
         <v>21</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E18">
         <v>34</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F18">
         <v>13</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19">
         <v>18</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C19">
         <v>42</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D19">
         <v>22</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F19">
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>45</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E20">
         <v>35</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F20">
         <v>13</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C21">
         <v>36</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D21">
         <v>25</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E21">
         <v>38</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F21">
         <v>3</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>45</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22">
         <v>8</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C22">
         <v>24</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D22">
         <v>37</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E22">
         <v>35</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F22">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C23">
         <v>43</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D23">
         <v>10</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E23">
         <v>4</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F23">
         <v>16</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24">
         <v>19</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C24">
         <v>6</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D24">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E24">
         <v>17</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F24">
         <v>16</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>27</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D25">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E25">
         <v>42</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F25">
         <v>19</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>29</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C26">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D26">
         <v>11</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E26">
         <v>17</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F26">
         <v>9</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27">
         <v>36</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C27">
         <v>6</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D27">
         <v>43</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E27">
         <v>9</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F27">
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>11</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28">
         <v>45</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C28">
         <v>12</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D28">
         <v>19</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E28">
         <v>43</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F28">
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>10</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29">
         <v>37</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C29">
         <v>35</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D29">
         <v>36</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E29">
         <v>18</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F29">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>38</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30">
         <v>22</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C30">
         <v>32</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D30">
         <v>7</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E30">
         <v>3</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F30">
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>21</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31">
         <v>44</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C31">
         <v>13</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D31">
         <v>18</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E31">
         <v>27</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F31">
         <v>18</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>15</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D32">
         <v>14</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E32">
         <v>8</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F32">
         <v>2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C33">
         <v>43</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E33">
         <v>42</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F33">
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34">
         <v>24</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C34">
         <v>28</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D34">
         <v>31</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E34">
         <v>22</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F34">
         <v>4</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>3</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35">
         <v>40</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C35">
         <v>10</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D35">
         <v>34</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E35">
         <v>25</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F35">
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>23</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36">
         <v>40</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C36">
         <v>10</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D36">
         <v>17</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E36">
         <v>14</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F36">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>25</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37">
         <v>43</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C37">
         <v>24</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D37">
         <v>28</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E37">
         <v>15</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F37">
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38">
         <v>26</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C38">
         <v>44</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D38">
         <v>27</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E38">
         <v>13</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F38">
         <v>9</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>45</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B39">
         <v>32</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D39">
         <v>34</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E39">
         <v>21</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F39">
         <v>6</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>29</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B40">
         <v>2</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C40">
         <v>19</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D40">
         <v>12</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E40">
         <v>30</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F40">
         <v>7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>14</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B41">
         <v>16</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C41">
         <v>39</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D41">
         <v>36</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E41">
         <v>27</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F41">
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>19</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B42">
         <v>7</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D42">
         <v>21</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E42">
         <v>12</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F42">
         <v>2</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>43</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B43">
         <v>13</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C43">
         <v>15</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D43">
         <v>29</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E43">
         <v>36</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F43">
         <v>16</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>13</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B44">
         <v>41</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C44">
         <v>7</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D44">
         <v>28</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E44">
         <v>42</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F44">
         <v>4</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>14</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B45">
         <v>29</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C45">
         <v>33</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D45">
         <v>44</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E45">
         <v>10</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F45">
         <v>16</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>6</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46">
         <v>13</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C46">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D46">
         <v>43</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E46">
         <v>22</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F46">
         <v>11</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>4</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B47">
         <v>42</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D47">
         <v>39</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E47">
         <v>24</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F47">
         <v>6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>16</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B48">
         <v>25</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C48">
         <v>24</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D48">
         <v>31</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E48">
         <v>4</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F48">
         <v>3</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>25</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B49">
         <v>41</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C49">
         <v>18</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D49">
         <v>36</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E49">
         <v>22</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F49">
         <v>20</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>40</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B50">
         <v>4</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C50">
         <v>20</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D50">
         <v>32</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E50">
         <v>7</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F50">
         <v>4</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>37</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B51">
         <v>20</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C51">
         <v>24</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D51">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E51">
         <v>25</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F51">
         <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>12</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B52">
         <v>25</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C52">
         <v>7</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D52">
         <v>34</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E52">
         <v>3</v>
       </c>
-      <c r="F51" s="1" t="n">
+      <c r="F52">
         <v>8</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>33</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B53">
         <v>43</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C53">
         <v>10</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D53">
         <v>40</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E53">
         <v>15</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="F53">
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>10</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B54">
         <v>34</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D54">
         <v>41</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E54">
         <v>40</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F54">
         <v>6</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>20</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B55">
         <v>29</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C55">
         <v>22</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D55">
         <v>16</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E55">
         <v>42</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F55">
         <v>1</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>13</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B56">
         <v>31</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C56">
         <v>39</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D56">
         <v>17</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E56">
         <v>14</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F56">
         <v>14</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>15</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B57">
         <v>40</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C57">
         <v>39</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D57">
         <v>29</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E57">
         <v>5</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F57">
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>5</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B58">
         <v>24</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C58">
         <v>44</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D58">
         <v>32</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E58">
         <v>8</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F58">
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>43</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B59">
         <v>8</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C59">
         <v>41</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D59">
         <v>12</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E59">
         <v>11</v>
       </c>
-      <c r="F58" s="1" t="n">
+      <c r="F59">
         <v>14</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>19</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B60">
         <v>9</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C60">
         <v>25</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D60">
         <v>17</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E60">
         <v>15</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F60">
         <v>4</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>8</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B61">
         <v>33</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C61">
         <v>32</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D61">
         <v>3</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E61">
         <v>12</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="F61">
         <v>6</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>41</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B62">
         <v>15</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C62">
         <v>6</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D62">
         <v>32</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E62">
         <v>21</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F62">
         <v>7</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>22</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B63">
         <v>44</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C63">
         <v>7</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D63">
         <v>33</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E63">
         <v>25</v>
       </c>
-      <c r="F62" s="1" t="n">
+      <c r="F63">
         <v>20</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>18</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B64">
         <v>40</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C64">
         <v>26</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D64">
         <v>13</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E64">
         <v>20</v>
       </c>
-      <c r="F63" s="1" t="n">
+      <c r="F64">
         <v>19</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>18</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B65">
         <v>33</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C65">
         <v>19</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D65">
         <v>5</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E65">
         <v>28</v>
       </c>
-      <c r="F64" s="1" t="n">
+      <c r="F65">
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>33</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B66">
         <v>26</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C66">
         <v>35</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D66">
         <v>29</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E66">
         <v>19</v>
       </c>
-      <c r="F65" s="1" t="n">
+      <c r="F66">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\My-Applications\GitHub\repository\6-digits-lottery\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE38DED-329E-46A3-BD3D-F0935B382CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="2805" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1-data-joker" sheetId="1" r:id="rId1"/>
+    <sheet name="1-data-joker" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,35 +22,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>1st_number</t>
+    <t xml:space="preserve">1st_number</t>
   </si>
   <si>
-    <t>2nd_number</t>
+    <t xml:space="preserve">2nd_number</t>
   </si>
   <si>
-    <t>3rd_number</t>
+    <t xml:space="preserve">3rd_number</t>
   </si>
   <si>
-    <t>4th_number</t>
+    <t xml:space="preserve">4th_number</t>
   </si>
   <si>
-    <t>5th_number</t>
+    <t xml:space="preserve">5th_number</t>
   </si>
   <si>
-    <t>6th_number</t>
+    <t xml:space="preserve">6th_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,7 +80,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -75,77 +88,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -177,7 +210,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -201,7 +234,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -261,1348 +294,1394 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F2">
+      <c r="F4" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F3">
+      <c r="F5" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F4">
+      <c r="F6" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E5">
+      <c r="E7" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F5">
+      <c r="F7" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F6">
+      <c r="F8" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B7">
+      <c r="B9" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="E9" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="F9" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D8">
+      <c r="D10" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E8">
+      <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F10" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D9">
+      <c r="D11" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E9">
+      <c r="E11" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F9">
+      <c r="F11" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D10">
+      <c r="D12" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E10">
+      <c r="E12" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F10">
+      <c r="F12" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E11">
+      <c r="E13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="F13" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E12">
+      <c r="E14" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F12">
+      <c r="F14" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E13">
+      <c r="E15" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F13">
+      <c r="F15" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B16" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D14">
+      <c r="D16" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E14">
+      <c r="E16" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F14">
+      <c r="F16" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="D17" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="E15">
+      <c r="E17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F17" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B16">
+      <c r="B18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D16">
+      <c r="D18" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E16">
+      <c r="E18" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="F18" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B19" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C19" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E17">
+      <c r="E19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F17">
+      <c r="F19" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B18">
+      <c r="B20" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C18">
+      <c r="C20" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="D20" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E18">
+      <c r="E20" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F18">
+      <c r="F20" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="B21" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E19">
+      <c r="E21" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="F21" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B20">
+      <c r="B22" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C20">
+      <c r="C22" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D20">
+      <c r="D22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E20">
+      <c r="E22" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F20">
+      <c r="F22" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B21">
+      <c r="B23" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D21">
+      <c r="D23" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E21">
+      <c r="E23" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F21">
+      <c r="F23" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B22">
+      <c r="B24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C22">
+      <c r="C24" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D22">
+      <c r="D24" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="E22">
+      <c r="E24" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F22">
+      <c r="F24" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B23">
+      <c r="B25" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="E25" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="F25" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B24">
+      <c r="B26" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C24">
+      <c r="C26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D24">
+      <c r="D26" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E24">
+      <c r="E26" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F24">
+      <c r="F26" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B25">
+      <c r="B27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C25">
+      <c r="C27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D27" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E25">
+      <c r="E27" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F25">
+      <c r="F27" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="B28" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C28" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D26">
+      <c r="D28" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E26">
+      <c r="E28" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F26">
+      <c r="F28" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B27">
+      <c r="B29" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C27">
+      <c r="C29" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D27">
+      <c r="D29" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="E27">
+      <c r="E29" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F27">
+      <c r="F29" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B28">
+      <c r="B30" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C28">
+      <c r="C30" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D28">
+      <c r="D30" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E28">
+      <c r="E30" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="F28">
+      <c r="F30" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B31" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C29">
+      <c r="C31" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D29">
+      <c r="D31" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E29">
+      <c r="E31" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F29">
+      <c r="F31" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B30">
+      <c r="B32" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C30">
+      <c r="C32" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D30">
+      <c r="D32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E30">
+      <c r="E32" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F30">
+      <c r="F32" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B31">
+      <c r="B33" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C31">
+      <c r="C33" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="D33" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E31">
+      <c r="E33" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F31">
+      <c r="F33" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B32">
+      <c r="B34" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C32">
+      <c r="C34" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D32">
+      <c r="D34" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E32">
+      <c r="E34" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F32">
+      <c r="F34" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B33">
+      <c r="B35" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C35" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="D33">
+      <c r="D35" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E33">
+      <c r="E35" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F33">
+      <c r="F35" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B34">
+      <c r="B36" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C34">
+      <c r="C36" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D34">
+      <c r="D36" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E34">
+      <c r="E36" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F34">
+      <c r="F36" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B35">
+      <c r="B37" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C35">
+      <c r="C37" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D35">
+      <c r="D37" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E35">
+      <c r="E37" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F35">
+      <c r="F37" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B36">
+      <c r="B38" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C36">
+      <c r="C38" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D36">
+      <c r="D38" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E36">
+      <c r="E38" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F36">
+      <c r="F38" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B37">
+      <c r="B39" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C37">
+      <c r="C39" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D37">
+      <c r="D39" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E37">
+      <c r="E39" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F37">
+      <c r="F39" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B40" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C38">
+      <c r="C40" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D38">
+      <c r="D40" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E38">
+      <c r="E40" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F38">
+      <c r="F40" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B39">
+      <c r="B41" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C39">
+      <c r="C41" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D39">
+      <c r="D41" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E39">
+      <c r="E41" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F39">
+      <c r="F41" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B40">
+      <c r="B42" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="C42" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D40">
+      <c r="D42" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E40">
+      <c r="E42" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F40">
+      <c r="F42" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B41">
+      <c r="B43" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C41">
+      <c r="C43" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D41">
+      <c r="D43" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E41">
+      <c r="E43" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F41">
+      <c r="F43" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B42">
+      <c r="B44" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C42">
+      <c r="C44" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D42">
+      <c r="D44" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E42">
+      <c r="E44" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F42">
+      <c r="F44" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B43">
+      <c r="B45" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C43">
+      <c r="C45" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D43">
+      <c r="D45" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E43">
+      <c r="E45" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F43">
+      <c r="F45" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B44">
+      <c r="B46" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C44">
+      <c r="C46" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D44">
+      <c r="D46" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E44">
+      <c r="E46" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F44">
+      <c r="F46" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B45">
+      <c r="B47" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C45">
+      <c r="C47" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D45">
+      <c r="D47" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="E45">
+      <c r="E47" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F45">
+      <c r="F47" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B46">
+      <c r="B48" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C46">
+      <c r="C48" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D46">
+      <c r="D48" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="E46">
+      <c r="E48" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F46">
+      <c r="F48" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B47">
+      <c r="B49" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C47">
+      <c r="C49" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D49" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E47">
+      <c r="E49" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F47">
+      <c r="F49" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B48">
+      <c r="B50" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C48">
+      <c r="C50" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D48">
+      <c r="D50" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E48">
+      <c r="E50" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F48">
+      <c r="F50" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B49">
+      <c r="B51" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C49">
+      <c r="C51" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D49">
+      <c r="D51" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E49">
+      <c r="E51" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F49">
+      <c r="F51" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B50">
+      <c r="B52" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C50">
+      <c r="C52" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D50">
+      <c r="D52" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E50">
+      <c r="E52" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F50">
+      <c r="F52" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B51">
+      <c r="B53" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C51">
+      <c r="C53" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D51">
+      <c r="D53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E51">
+      <c r="E53" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F51">
+      <c r="F53" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B52">
+      <c r="B54" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C52">
+      <c r="C54" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D52">
+      <c r="D54" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E52">
+      <c r="E54" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F52">
+      <c r="F54" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B53">
+      <c r="B55" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C53">
+      <c r="C55" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D53">
+      <c r="D55" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E53">
+      <c r="E55" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F53">
+      <c r="F55" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B54">
+      <c r="B56" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C54">
+      <c r="C56" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D54">
+      <c r="D56" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E54">
+      <c r="E56" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F54">
+      <c r="F56" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B55">
+      <c r="B57" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C55">
+      <c r="C57" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D55">
+      <c r="D57" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E55">
+      <c r="E57" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F55">
+      <c r="F57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B56">
+      <c r="B58" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C56">
+      <c r="C58" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D56">
+      <c r="D58" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E56">
+      <c r="E58" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F56">
+      <c r="F58" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B57">
+      <c r="B59" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C57">
+      <c r="C59" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D57">
+      <c r="D59" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E57">
+      <c r="E59" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F57">
+      <c r="F59" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B58">
+      <c r="B60" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C58">
+      <c r="C60" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D58">
+      <c r="D60" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E58">
+      <c r="E60" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F58">
+      <c r="F60" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B59">
+      <c r="B61" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C59">
+      <c r="C61" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D59">
+      <c r="D61" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E59">
+      <c r="E61" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F59">
+      <c r="F61" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B60">
+      <c r="B62" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C60">
+      <c r="C62" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D60">
+      <c r="D62" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E60">
+      <c r="E62" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F60">
+      <c r="F62" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B61">
+      <c r="B63" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C61">
+      <c r="C63" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D61">
+      <c r="D63" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E61">
+      <c r="E63" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F61">
+      <c r="F63" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B62">
+      <c r="B64" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C62">
+      <c r="C64" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D62">
+      <c r="D64" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E62">
+      <c r="E64" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F62">
+      <c r="F64" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B63">
+      <c r="B65" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C63">
+      <c r="C65" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D63">
+      <c r="D65" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="E63">
+      <c r="E65" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F63">
+      <c r="F65" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B64">
+      <c r="B66" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C64">
+      <c r="C66" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D64">
+      <c r="D66" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E64">
+      <c r="E66" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F64">
+      <c r="F66" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B65">
+      <c r="B67" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C65">
+      <c r="C67" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D65">
+      <c r="D67" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E65">
+      <c r="E67" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F65">
+      <c r="F67" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B66">
+      <c r="B68" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C66">
+      <c r="C68" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D66">
+      <c r="D68" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E66">
+      <c r="E68" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F66">
+      <c r="F68" s="0" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -113,8 +113,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,1371 +311,1411 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="E3" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <v>14</v>
       </c>
     </row>

--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\My-Applications\GitHub\repository\6-digits-lottery\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCFF016-155B-4F70-922F-7E9D3E09AE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="32775" yWindow="4920" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-data-joker" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="1-data-joker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,53 +27,35 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">1st_number</t>
+    <t>1st_number</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd_number</t>
+    <t>2nd_number</t>
   </si>
   <si>
-    <t xml:space="preserve">3rd_number</t>
+    <t>3rd_number</t>
   </si>
   <si>
-    <t xml:space="preserve">4th_number</t>
+    <t>4th_number</t>
   </si>
   <si>
-    <t xml:space="preserve">5th_number</t>
+    <t>5th_number</t>
   </si>
   <si>
-    <t xml:space="preserve">6th_number</t>
+    <t>6th_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +67,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -88,101 +75,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -214,7 +177,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -238,7 +201,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -298,1434 +261,1448 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C3">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D3">
         <v>32</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E3">
         <v>34</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C4">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D4">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E4">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F4">
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B5">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C5">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D5">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E5">
         <v>32</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B6">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D6">
         <v>38</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F6">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>40</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C7">
         <v>39</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D7">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E7">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F7">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E8">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F8">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C9">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D9">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E9">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F9">
         <v>12</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C10">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D10">
         <v>39</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F10">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11">
         <v>34</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C11">
         <v>25</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D11">
         <v>17</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E11">
         <v>42</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F11">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>36</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12">
         <v>35</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C12">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D12">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E12">
         <v>18</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F12">
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C13">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F13">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C14">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D14">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E14">
         <v>32</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F14">
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>8</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C15">
         <v>37</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D15">
         <v>16</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E15">
         <v>39</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F15">
         <v>9</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C16">
         <v>30</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D16">
         <v>23</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E16">
         <v>16</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F16">
         <v>12</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C17">
         <v>13</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D17">
         <v>5</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E17">
         <v>34</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F17">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B18">
         <v>17</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C18">
         <v>5</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D18">
         <v>28</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E18">
         <v>22</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F18">
         <v>8</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C19">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D19">
         <v>39</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E19">
         <v>29</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F19">
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>21</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B20">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C20">
         <v>20</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D20">
         <v>35</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F20">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>22</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C21">
         <v>28</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D21">
         <v>13</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E21">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F21">
         <v>13</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C22">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E22">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F22">
         <v>3</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>29</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B23">
         <v>42</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C23">
         <v>14</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D23">
         <v>21</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E23">
         <v>34</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F23">
         <v>13</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>15</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B24">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C24">
         <v>42</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D24">
         <v>22</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E24">
         <v>3</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F24">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C25">
         <v>2</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D25">
         <v>5</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E25">
         <v>35</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F25">
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C26">
         <v>36</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D26">
         <v>25</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E26">
         <v>38</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>45</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B27">
         <v>8</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C27">
         <v>24</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D27">
         <v>37</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E27">
         <v>35</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F27">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>19</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B28">
         <v>20</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C28">
         <v>43</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D28">
         <v>10</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E28">
         <v>4</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F28">
         <v>16</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>11</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B29">
         <v>19</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C29">
         <v>6</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D29">
         <v>29</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E29">
         <v>17</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F29">
         <v>16</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C30">
         <v>2</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D30">
         <v>15</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E30">
         <v>42</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F30">
         <v>19</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B31">
         <v>13</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C31">
         <v>44</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E31">
         <v>17</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F31">
         <v>9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>10</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B32">
         <v>36</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C32">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D32">
         <v>43</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E32">
         <v>9</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F32">
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B33">
         <v>45</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C33">
         <v>12</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D33">
         <v>19</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E33">
         <v>43</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F33">
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B34">
         <v>37</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C34">
         <v>35</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D34">
         <v>36</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E34">
         <v>18</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F34">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>38</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B35">
         <v>22</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C35">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E35">
         <v>3</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F35">
         <v>20</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>21</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B36">
         <v>44</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C36">
         <v>13</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D36">
         <v>18</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E36">
         <v>27</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F36">
         <v>18</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>15</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B37">
         <v>6</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D37">
         <v>14</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E37">
         <v>8</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F37">
         <v>2</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B38">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C38">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D38">
         <v>7</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E38">
         <v>42</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F38">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>1</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B39">
         <v>24</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C39">
         <v>28</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D39">
         <v>31</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E39">
         <v>22</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F39">
         <v>4</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B40">
         <v>40</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D40">
         <v>34</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E40">
         <v>25</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F40">
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>23</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B41">
         <v>40</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C41">
         <v>10</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D41">
         <v>17</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E41">
         <v>14</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F41">
         <v>20</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>25</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B42">
         <v>43</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C42">
         <v>24</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D42">
         <v>28</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E42">
         <v>15</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F42">
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>36</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B43">
         <v>26</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C43">
         <v>44</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D43">
         <v>27</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E43">
         <v>13</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F43">
         <v>9</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>45</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B44">
         <v>32</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C44">
         <v>2</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D44">
         <v>34</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E44">
         <v>21</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F44">
         <v>6</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>29</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B45">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C45">
         <v>19</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D45">
         <v>12</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E45">
         <v>30</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F45">
         <v>7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>14</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B46">
         <v>16</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C46">
         <v>39</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D46">
         <v>36</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E46">
         <v>27</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F46">
         <v>2</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>19</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B47">
         <v>7</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C47">
         <v>2</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D47">
         <v>21</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E47">
         <v>12</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F47">
         <v>2</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>43</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B48">
         <v>13</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C48">
         <v>15</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D48">
         <v>29</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E48">
         <v>36</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F48">
         <v>16</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>13</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B49">
         <v>41</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D49">
         <v>28</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E49">
         <v>42</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F49">
         <v>4</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>14</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B50">
         <v>29</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C50">
         <v>33</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D50">
         <v>44</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E50">
         <v>10</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F50">
         <v>16</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>6</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B51">
         <v>13</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C51">
         <v>5</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D51">
         <v>43</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E51">
         <v>22</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F51">
         <v>11</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>4</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B52">
         <v>42</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C52">
         <v>14</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D52">
         <v>39</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E52">
         <v>24</v>
       </c>
-      <c r="F51" s="1" t="n">
+      <c r="F52">
         <v>6</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>16</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B53">
         <v>25</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C53">
         <v>24</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D53">
         <v>31</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E53">
         <v>4</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="F53">
         <v>3</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>25</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B54">
         <v>41</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C54">
         <v>18</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D54">
         <v>36</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E54">
         <v>22</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F54">
         <v>20</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>40</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B55">
         <v>4</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C55">
         <v>20</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D55">
         <v>32</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E55">
         <v>7</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F55">
         <v>4</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>37</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B56">
         <v>20</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C56">
         <v>24</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D56">
         <v>1</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E56">
         <v>25</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F56">
         <v>11</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>12</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B57">
         <v>25</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C57">
         <v>7</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D57">
         <v>34</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E57">
         <v>3</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F57">
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>33</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B58">
         <v>43</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C58">
         <v>10</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D58">
         <v>40</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E58">
         <v>15</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F58">
         <v>5</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>10</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B59">
         <v>34</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D59">
         <v>41</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E59">
         <v>40</v>
       </c>
-      <c r="F58" s="1" t="n">
+      <c r="F59">
         <v>6</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>20</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B60">
         <v>29</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C60">
         <v>22</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D60">
         <v>16</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E60">
         <v>42</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F60">
         <v>1</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>13</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B61">
         <v>31</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C61">
         <v>39</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D61">
         <v>17</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E61">
         <v>14</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="F61">
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>15</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B62">
         <v>40</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C62">
         <v>39</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D62">
         <v>29</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E62">
         <v>5</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F62">
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>5</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B63">
         <v>24</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C63">
         <v>44</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D63">
         <v>32</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E63">
         <v>8</v>
       </c>
-      <c r="F62" s="1" t="n">
+      <c r="F63">
         <v>9</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>43</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B64">
         <v>8</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C64">
         <v>41</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D64">
         <v>12</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E64">
         <v>11</v>
       </c>
-      <c r="F63" s="1" t="n">
+      <c r="F64">
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>19</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B65">
         <v>9</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C65">
         <v>25</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D65">
         <v>17</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E65">
         <v>15</v>
       </c>
-      <c r="F64" s="1" t="n">
+      <c r="F65">
         <v>4</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>8</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B66">
         <v>33</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C66">
         <v>32</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D66">
         <v>3</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E66">
         <v>12</v>
       </c>
-      <c r="F65" s="1" t="n">
+      <c r="F66">
         <v>6</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>41</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B67">
         <v>15</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C67">
         <v>6</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D67">
         <v>32</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E67">
         <v>21</v>
       </c>
-      <c r="F66" s="1" t="n">
+      <c r="F67">
         <v>7</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>22</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B68">
         <v>44</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C68">
         <v>7</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D68">
         <v>33</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E68">
         <v>25</v>
       </c>
-      <c r="F67" s="1" t="n">
+      <c r="F68">
         <v>20</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>18</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B69">
         <v>40</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C69">
         <v>26</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D69">
         <v>13</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E69">
         <v>20</v>
       </c>
-      <c r="F68" s="1" t="n">
+      <c r="F69">
         <v>19</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>18</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B70">
         <v>33</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C70">
         <v>19</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D70">
         <v>5</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E70">
         <v>28</v>
       </c>
-      <c r="F69" s="1" t="n">
+      <c r="F70">
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>33</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B71">
         <v>26</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C71">
         <v>35</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D71">
         <v>29</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E71">
         <v>19</v>
       </c>
-      <c r="F70" s="1" t="n">
+      <c r="F71">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\My-Applications\GitHub\repository\6-digits-lottery\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCFF016-155B-4F70-922F-7E9D3E09AE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="32775" yWindow="4920" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="1-data-joker" sheetId="1" r:id="rId1"/>
+    <sheet name="1-data-joker" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,35 +22,53 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>1st_number</t>
+    <t xml:space="preserve">1st_number</t>
   </si>
   <si>
-    <t>2nd_number</t>
+    <t xml:space="preserve">2nd_number</t>
   </si>
   <si>
-    <t>3rd_number</t>
+    <t xml:space="preserve">3rd_number</t>
   </si>
   <si>
-    <t>4th_number</t>
+    <t xml:space="preserve">4th_number</t>
   </si>
   <si>
-    <t>5th_number</t>
+    <t xml:space="preserve">5th_number</t>
   </si>
   <si>
-    <t>6th_number</t>
+    <t xml:space="preserve">6th_number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -67,7 +80,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -75,77 +88,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -177,7 +210,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -201,7 +234,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -261,1448 +294,1494 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="B4" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C2">
+      <c r="C4" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D2">
+      <c r="D4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E4" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="F4" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C5" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D3">
+      <c r="D5" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="F5" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B6" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="C4">
+      <c r="C6" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="D6" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E4">
+      <c r="E6" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F4">
+      <c r="F6" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C5">
+      <c r="C7" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D7" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="E5">
+      <c r="E7" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F5">
+      <c r="F7" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B8" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C8" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D8" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="E6">
+      <c r="E8" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F6">
+      <c r="F8" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B7">
+      <c r="B9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C9" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D7">
+      <c r="D9" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E9" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F7">
+      <c r="F9" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C10" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D10" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E8">
+      <c r="E10" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F8">
+      <c r="F10" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D11" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E9">
+      <c r="E11" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F9">
+      <c r="F11" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B12" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="C12" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D10">
+      <c r="D12" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E10">
+      <c r="E12" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="F12" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B13" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E11">
+      <c r="E13" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F11">
+      <c r="F13" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B12">
+      <c r="B14" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E12">
+      <c r="E14" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F12">
+      <c r="F14" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F15" s="0" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B16" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D16" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="E16" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F14">
+      <c r="F16" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B17" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C15">
+      <c r="C17" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D15">
+      <c r="D17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E15">
+      <c r="E17" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="F15">
+      <c r="F17" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="B18" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="C18" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D16">
+      <c r="D18" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E16">
+      <c r="E18" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="F18" s="0" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C19" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E17">
+      <c r="E19" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F17">
+      <c r="F19" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B20" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="D20" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="E20" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F18">
+      <c r="F20" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B21" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="C19">
+      <c r="C21" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D19">
+      <c r="D21" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E19">
+      <c r="E21" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F19">
+      <c r="F21" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B20">
+      <c r="B22" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="C22" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="D22" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="E20">
+      <c r="E22" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F22" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B23" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C23" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D21">
+      <c r="D23" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E21">
+      <c r="E23" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="F23" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="B22">
+      <c r="B24" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C24" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D22">
+      <c r="D24" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E22">
+      <c r="E24" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F22">
+      <c r="F24" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B23">
+      <c r="B25" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C23">
+      <c r="C25" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D23">
+      <c r="D25" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E23">
+      <c r="E25" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F23">
+      <c r="F25" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B24">
+      <c r="B26" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="C24">
+      <c r="C26" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="D24">
+      <c r="D26" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="E24">
+      <c r="E26" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="F26" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B25">
+      <c r="B27" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C27" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D25">
+      <c r="D27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="E27" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F25">
+      <c r="F27" s="0" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B28" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C28" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D26">
+      <c r="D28" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E26">
+      <c r="E28" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="F26">
+      <c r="F28" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B27">
+      <c r="B29" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C27">
+      <c r="C29" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D27">
+      <c r="D29" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="E27">
+      <c r="E29" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="F29" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B28">
+      <c r="B30" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C28">
+      <c r="C30" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="D28">
+      <c r="D30" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E28">
+      <c r="E30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="F30" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B29">
+      <c r="B31" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="C29">
+      <c r="C31" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D29">
+      <c r="D31" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E29">
+      <c r="E31" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F29">
+      <c r="F31" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="C32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D30">
+      <c r="D32" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E30">
+      <c r="E32" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F30">
+      <c r="F32" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B33" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C31">
+      <c r="C33" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D31">
+      <c r="D33" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E31">
+      <c r="E33" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F31">
+      <c r="F33" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B32">
+      <c r="B34" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C32">
+      <c r="C34" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="D34" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="E32">
+      <c r="E34" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F32">
+      <c r="F34" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B33">
+      <c r="B35" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="C33">
+      <c r="C35" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D33">
+      <c r="D35" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E33">
+      <c r="E35" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="F33">
+      <c r="F35" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B34">
+      <c r="B36" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="C34">
+      <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D34">
+      <c r="D36" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E34">
+      <c r="E36" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F34">
+      <c r="F36" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B37" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="C35">
+      <c r="C37" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D35">
+      <c r="D37" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E35">
+      <c r="E37" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F35">
+      <c r="F37" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B36">
+      <c r="B38" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C36">
+      <c r="C38" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D36">
+      <c r="D38" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E36">
+      <c r="E38" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F36">
+      <c r="F38" s="0" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B37">
+      <c r="B39" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C37">
+      <c r="C39" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D37">
+      <c r="D39" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E37">
+      <c r="E39" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F37">
+      <c r="F39" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C38">
+      <c r="C40" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="D38">
+      <c r="D40" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E38">
+      <c r="E40" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F38">
+      <c r="F40" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B39">
+      <c r="B41" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C39">
+      <c r="C41" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="D41" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E39">
+      <c r="E41" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F39">
+      <c r="F41" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B40">
+      <c r="B42" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C40">
+      <c r="C42" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D40">
+      <c r="D42" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E40">
+      <c r="E42" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F40">
+      <c r="F42" s="0" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B41">
+      <c r="B43" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C43" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D41">
+      <c r="D43" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E41">
+      <c r="E43" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F41">
+      <c r="F43" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B42">
+      <c r="B44" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C42">
+      <c r="C44" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D42">
+      <c r="D44" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E42">
+      <c r="E44" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F42">
+      <c r="F44" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="B43">
+      <c r="B45" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C43">
+      <c r="C45" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D43">
+      <c r="D45" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E43">
+      <c r="E45" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F43">
+      <c r="F45" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B44">
+      <c r="B46" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="C44">
+      <c r="C46" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D44">
+      <c r="D46" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E44">
+      <c r="E46" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F44">
+      <c r="F46" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="B45">
+      <c r="B47" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C47" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D45">
+      <c r="D47" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E45">
+      <c r="E47" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F45">
+      <c r="F47" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B46">
+      <c r="B48" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C46">
+      <c r="C48" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D46">
+      <c r="D48" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E46">
+      <c r="E48" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F46">
+      <c r="F48" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B47">
+      <c r="B49" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C47">
+      <c r="C49" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D47">
+      <c r="D49" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E47">
+      <c r="E49" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F47">
+      <c r="F49" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B48">
+      <c r="B50" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C48">
+      <c r="C50" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D48">
+      <c r="D50" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E48">
+      <c r="E50" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="F48">
+      <c r="F50" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B49">
+      <c r="B51" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C49">
+      <c r="C51" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D49">
+      <c r="D51" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E49">
+      <c r="E51" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F49">
+      <c r="F51" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B50">
+      <c r="B52" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C50">
+      <c r="C52" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D50">
+      <c r="D52" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="E50">
+      <c r="E52" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F50">
+      <c r="F52" s="0" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B51">
+      <c r="B53" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C51">
+      <c r="C53" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D51">
+      <c r="D53" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="E51">
+      <c r="E53" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F51">
+      <c r="F53" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B52">
+      <c r="B54" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="C52">
+      <c r="C54" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D52">
+      <c r="D54" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="E52">
+      <c r="E54" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F52">
+      <c r="F54" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B53">
+      <c r="B55" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C53">
+      <c r="C55" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D53">
+      <c r="D55" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E53">
+      <c r="E55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F53">
+      <c r="F55" s="0" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B54">
+      <c r="B56" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="C54">
+      <c r="C56" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D54">
+      <c r="D56" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E54">
+      <c r="E56" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="F54">
+      <c r="F56" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="B55">
+      <c r="B57" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C55">
+      <c r="C57" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D55">
+      <c r="D57" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E55">
+      <c r="E57" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F55">
+      <c r="F57" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="B56">
+      <c r="B58" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="C56">
+      <c r="C58" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D56">
+      <c r="D58" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E56">
+      <c r="E58" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F56">
+      <c r="F58" s="0" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B57">
+      <c r="B59" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="C57">
+      <c r="C59" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D57">
+      <c r="D59" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E57">
+      <c r="E59" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F57">
+      <c r="F59" s="0" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B58">
+      <c r="B60" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="C58">
+      <c r="C60" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D58">
+      <c r="D60" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="E58">
+      <c r="E60" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F58">
+      <c r="F60" s="0" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B59">
+      <c r="B61" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="C59">
+      <c r="C61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="D61" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="E59">
+      <c r="E61" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="F59">
+      <c r="F61" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B60">
+      <c r="B62" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="C60">
+      <c r="C62" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D60">
+      <c r="D62" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E60">
+      <c r="E62" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F60">
+      <c r="F62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B61">
+      <c r="B63" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="C61">
+      <c r="C63" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D61">
+      <c r="D63" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E61">
+      <c r="E63" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F61">
+      <c r="F63" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B62">
+      <c r="B64" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C62">
+      <c r="C64" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="D62">
+      <c r="D64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E62">
+      <c r="E64" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F62">
+      <c r="F64" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B63">
+      <c r="B65" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C63">
+      <c r="C65" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D63">
+      <c r="D65" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E63">
+      <c r="E65" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F63">
+      <c r="F65" s="0" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="B64">
+      <c r="B66" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C64">
+      <c r="C66" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="D64">
+      <c r="D66" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E64">
+      <c r="E66" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F64">
+      <c r="F66" s="0" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B65">
+      <c r="B67" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="C65">
+      <c r="C67" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D65">
+      <c r="D67" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E65">
+      <c r="E67" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F65">
+      <c r="F67" s="0" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B66">
+      <c r="B68" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C66">
+      <c r="C68" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D66">
+      <c r="D68" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E66">
+      <c r="E68" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F66">
+      <c r="F68" s="0" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
         <v>41</v>
       </c>
-      <c r="B67">
+      <c r="B69" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="C67">
+      <c r="C69" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D67">
+      <c r="D69" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E67">
+      <c r="E69" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F67">
+      <c r="F69" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B68">
+      <c r="B70" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="C68">
+      <c r="C70" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D68">
+      <c r="D70" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="E68">
+      <c r="E70" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F68">
+      <c r="F70" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B69">
+      <c r="B71" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="C69">
+      <c r="C71" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D69">
+      <c r="D71" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E69">
+      <c r="E71" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F69">
+      <c r="F71" s="0" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B70">
+      <c r="B72" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="C70">
+      <c r="C72" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D70">
+      <c r="D72" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E70">
+      <c r="E72" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F70">
+      <c r="F72" s="0" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="B71">
+      <c r="B73" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="C71">
+      <c r="C73" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D71">
+      <c r="D73" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E71">
+      <c r="E73" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F71">
+      <c r="F73" s="0" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -113,8 +113,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,1471 +311,1491 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
+      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E32" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F32" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E33" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="F33" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B34" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D34" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E34" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F34" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B35" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E35" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F34" s="0" t="n">
+      <c r="F35" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B36" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E36" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F36" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B37" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E37" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F37" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B38" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D38" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E38" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F38" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B39" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D38" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E39" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F38" s="0" t="n">
+      <c r="F39" s="1" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D40" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E40" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F40" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B41" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="D40" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E41" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F40" s="0" t="n">
+      <c r="F41" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B42" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C42" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D42" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E42" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="F42" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B43" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E43" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F42" s="0" t="n">
+      <c r="F43" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B44" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E44" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F43" s="0" t="n">
+      <c r="F44" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E45" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F44" s="0" t="n">
+      <c r="F45" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B46" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D46" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E46" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F45" s="0" t="n">
+      <c r="F46" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B47" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C47" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E47" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F46" s="0" t="n">
+      <c r="F47" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B48" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E48" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="F47" s="0" t="n">
+      <c r="F48" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B49" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E49" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="F48" s="0" t="n">
+      <c r="F49" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B50" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C50" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="E49" s="0" t="n">
+      <c r="E50" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F49" s="0" t="n">
+      <c r="F50" s="1" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B51" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E50" s="0" t="n">
+      <c r="E51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F50" s="0" t="n">
+      <c r="F51" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B52" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="E51" s="0" t="n">
+      <c r="E52" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F51" s="0" t="n">
+      <c r="F52" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B53" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C53" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D53" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E53" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F52" s="0" t="n">
+      <c r="F53" s="1" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B54" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D53" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E54" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F53" s="0" t="n">
+      <c r="F54" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B55" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C55" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D55" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="E54" s="0" t="n">
+      <c r="E55" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="F54" s="0" t="n">
+      <c r="F55" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B56" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D55" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="E55" s="0" t="n">
+      <c r="E56" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F55" s="0" t="n">
+      <c r="F56" s="1" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B57" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E57" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="F56" s="0" t="n">
+      <c r="F57" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B58" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E57" s="0" t="n">
+      <c r="E58" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F57" s="0" t="n">
+      <c r="F58" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B59" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E59" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F58" s="0" t="n">
+      <c r="F59" s="1" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B60" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E59" s="0" t="n">
+      <c r="E60" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F59" s="0" t="n">
+      <c r="F60" s="1" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B61" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D61" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E60" s="0" t="n">
+      <c r="E61" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F60" s="0" t="n">
+      <c r="F61" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B62" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C62" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="0" t="n">
+      <c r="D62" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="E61" s="0" t="n">
+      <c r="E62" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F61" s="0" t="n">
+      <c r="F62" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B63" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C63" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="D62" s="0" t="n">
+      <c r="D63" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F62" s="0" t="n">
+      <c r="F63" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B64" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C64" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D63" s="0" t="n">
+      <c r="D64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="F63" s="0" t="n">
+      <c r="F64" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B65" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C65" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="D64" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E64" s="0" t="n">
+      <c r="E65" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F64" s="0" t="n">
+      <c r="F65" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B66" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C66" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D66" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E65" s="0" t="n">
+      <c r="E66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F65" s="0" t="n">
+      <c r="F66" s="1" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C67" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D66" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E66" s="0" t="n">
+      <c r="E67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="F66" s="0" t="n">
+      <c r="F67" s="1" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C68" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E68" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F67" s="0" t="n">
+      <c r="F68" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B69" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C69" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E69" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F68" s="0" t="n">
+      <c r="F69" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="n">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B70" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="C69" s="0" t="n">
+      <c r="C70" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="E69" s="0" t="n">
+      <c r="E70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="F69" s="0" t="n">
+      <c r="F70" s="1" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="n">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B71" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="C70" s="0" t="n">
+      <c r="C71" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E71" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="F70" s="0" t="n">
+      <c r="F71" s="1" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="n">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B72" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="C71" s="0" t="n">
+      <c r="C72" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E72" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F71" s="0" t="n">
+      <c r="F72" s="1" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="n">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B73" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="C72" s="0" t="n">
+      <c r="C73" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E72" s="0" t="n">
+      <c r="E73" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="F72" s="0" t="n">
+      <c r="F73" s="1" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="n">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B74" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C73" s="0" t="n">
+      <c r="C74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="E73" s="0" t="n">
+      <c r="E74" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="F73" s="0" t="n">
+      <c r="F74" s="1" t="n">
         <v>14</v>
       </c>
     </row>

--- a/6-digits-lottery/2-joker-24-23.xlsx
+++ b/6-digits-lottery/2-joker-24-23.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\My-Applications\GitHub\repository\6-digits-lottery\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2794F2-8686-4C19-9EE8-6DB0B2FCF7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1-data-joker" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="1-data-joker" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,34 +25,157 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">1st_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2nd_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4th_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5th_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6th_number</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="48">
+  <si>
+    <t>1st_number</t>
+  </si>
+  <si>
+    <t>2nd_number</t>
+  </si>
+  <si>
+    <t>3rd_number</t>
+  </si>
+  <si>
+    <t>4th_number</t>
+  </si>
+  <si>
+    <t>5th_number</t>
+  </si>
+  <si>
+    <t>6th_number</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,19 +184,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,7 +197,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -88,101 +205,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -214,7 +310,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -238,7 +334,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -298,1514 +394,2228 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="n">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C38">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D38">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E38">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F38">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B39">
         <v>37</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C39">
         <v>45</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D39">
         <v>33</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E39">
         <v>30</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F39">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B40">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C40">
         <v>38</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D40">
         <v>33</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E40">
         <v>13</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F40">
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="B41">
         <v>39</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C41">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D41">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E41">
         <v>6</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F41">
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B42">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C42">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D42">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E42">
         <v>34</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F42">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B43">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C43">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D43">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E43">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F43">
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B44">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C44">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D44">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E44">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F44">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B45">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C45">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D45">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E45">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F45">
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>40</v>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B46">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C46">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D46">
         <v>28</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E46">
         <v>36</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F46">
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B47">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C47">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D47">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E47">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="n">
+      <c r="F47">
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B48">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C48">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D48">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E48">
         <v>35</v>
       </c>
-      <c r="F12" s="1" t="n">
+      <c r="F48">
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B49">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C49">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D49">
         <v>39</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E49">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="n">
+      <c r="F49">
         <v>8</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B50">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C50">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D50">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E50">
         <v>42</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="F50">
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B51">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C51">
         <v>28</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D51">
         <v>19</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E51">
         <v>18</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F51">
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B52">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="n">
+      <c r="C52">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D52">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="n">
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="F16" s="1" t="n">
+      <c r="F52">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B53">
         <v>9</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C53">
         <v>10</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D53">
         <v>12</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E53">
         <v>32</v>
       </c>
-      <c r="F17" s="1" t="n">
+      <c r="F53">
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B54">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C54">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D54">
         <v>16</v>
       </c>
-      <c r="E18" s="1" t="n">
+      <c r="E54">
         <v>39</v>
       </c>
-      <c r="F18" s="1" t="n">
+      <c r="F54">
         <v>9</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B55">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C55">
         <v>30</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D55">
         <v>23</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E55">
         <v>16</v>
       </c>
-      <c r="F19" s="1" t="n">
+      <c r="F55">
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B56">
         <v>4</v>
       </c>
-      <c r="C20" s="1" t="n">
+      <c r="C56">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D56">
         <v>5</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E56">
         <v>34</v>
       </c>
-      <c r="F20" s="1" t="n">
+      <c r="F56">
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>27</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B57">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C57">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D57">
         <v>28</v>
       </c>
-      <c r="E21" s="1" t="n">
+      <c r="E57">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="n">
+      <c r="F57">
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>14</v>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B58">
         <v>35</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="C58">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D58">
         <v>39</v>
       </c>
-      <c r="E22" s="1" t="n">
+      <c r="E58">
         <v>29</v>
       </c>
-      <c r="F22" s="1" t="n">
+      <c r="F58">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B59">
         <v>14</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C59">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D59">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E59">
         <v>4</v>
       </c>
-      <c r="F23" s="1" t="n">
+      <c r="F59">
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B60">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="n">
+      <c r="C60">
         <v>28</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D60">
         <v>13</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E60">
         <v>11</v>
       </c>
-      <c r="F24" s="1" t="n">
+      <c r="F60">
         <v>13</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B61">
         <v>7</v>
       </c>
-      <c r="C25" s="1" t="n">
+      <c r="C61">
         <v>27</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D61">
         <v>21</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E61">
         <v>13</v>
       </c>
-      <c r="F25" s="1" t="n">
+      <c r="F61">
         <v>3</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B62">
         <v>42</v>
       </c>
-      <c r="C26" s="1" t="n">
+      <c r="C62">
         <v>14</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D62">
         <v>21</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E62">
         <v>34</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="F62">
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>15</v>
       </c>
-      <c r="B27" s="1" t="n">
+      <c r="B63">
         <v>18</v>
       </c>
-      <c r="C27" s="1" t="n">
+      <c r="C63">
         <v>42</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D63">
         <v>22</v>
       </c>
-      <c r="E27" s="1" t="n">
+      <c r="E63">
         <v>3</v>
       </c>
-      <c r="F27" s="1" t="n">
+      <c r="F63">
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>45</v>
       </c>
-      <c r="B28" s="1" t="n">
+      <c r="B64">
         <v>16</v>
       </c>
-      <c r="C28" s="1" t="n">
+      <c r="C64">
         <v>2</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D64">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="n">
+      <c r="E64">
         <v>35</v>
       </c>
-      <c r="F28" s="1" t="n">
+      <c r="F64">
         <v>13</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="n">
+      <c r="B65">
         <v>5</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="C65">
         <v>36</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D65">
         <v>25</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E65">
         <v>38</v>
       </c>
-      <c r="F29" s="1" t="n">
+      <c r="F65">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>45</v>
       </c>
-      <c r="B30" s="1" t="n">
+      <c r="B66">
         <v>8</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="C66">
         <v>24</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D66">
         <v>37</v>
       </c>
-      <c r="E30" s="1" t="n">
+      <c r="E66">
         <v>35</v>
       </c>
-      <c r="F30" s="1" t="n">
+      <c r="F66">
         <v>20</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>19</v>
       </c>
-      <c r="B31" s="1" t="n">
+      <c r="B67">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="n">
+      <c r="C67">
         <v>43</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D67">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="n">
+      <c r="E67">
         <v>4</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="F67">
         <v>16</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="n">
+      <c r="B68">
         <v>19</v>
       </c>
-      <c r="C32" s="1" t="n">
+      <c r="C68">
         <v>6</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D68">
         <v>29</v>
       </c>
-      <c r="E32" s="1" t="n">
+      <c r="E68">
         <v>17</v>
       </c>
-      <c r="F32" s="1" t="n">
+      <c r="F68">
         <v>16</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>27</v>
       </c>
-      <c r="B33" s="1" t="n">
+      <c r="B69">
         <v>5</v>
       </c>
-      <c r="C33" s="1" t="n">
+      <c r="C69">
         <v>2</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D69">
         <v>15</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E69">
         <v>42</v>
       </c>
-      <c r="F33" s="1" t="n">
+      <c r="F69">
         <v>19</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="n">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="n">
+      <c r="B70">
         <v>13</v>
       </c>
-      <c r="C34" s="1" t="n">
+      <c r="C70">
         <v>44</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D70">
         <v>11</v>
       </c>
-      <c r="E34" s="1" t="n">
+      <c r="E70">
         <v>17</v>
       </c>
-      <c r="F34" s="1" t="n">
+      <c r="F70">
         <v>9</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="n">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>10</v>
       </c>
-      <c r="B35" s="1" t="n">
+      <c r="B71">
         <v>36</v>
       </c>
-      <c r="C35" s="1" t="n">
+      <c r="C71">
         <v>6</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D71">
         <v>43</v>
       </c>
-      <c r="E35" s="1" t="n">
+      <c r="E71">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="n">
+      <c r="F71">
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="n">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>11</v>
       </c>
-      <c r="B36" s="1" t="n">
+      <c r="B72">
         <v>45</v>
       </c>
-      <c r="C36" s="1" t="n">
+      <c r="C72">
         <v>12</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D72">
         <v>19</v>
       </c>
-      <c r="E36" s="1" t="n">
+      <c r="E72">
         <v>43</v>
       </c>
-      <c r="F36" s="1" t="n">
+      <c r="F72">
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="n">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>10</v>
       </c>
-      <c r="B37" s="1" t="n">
+      <c r="B73">
         <v>37</v>
       </c>
-      <c r="C37" s="1" t="n">
+      <c r="C73">
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D73">
         <v>36</v>
       </c>
-      <c r="E37" s="1" t="n">
+      <c r="E73">
         <v>18</v>
       </c>
-      <c r="F37" s="1" t="n">
+      <c r="F73">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="n">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B74">
         <v>22</v>
       </c>
-      <c r="C38" s="1" t="n">
+      <c r="C74">
         <v>32</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D74">
         <v>7</v>
       </c>
-      <c r="E38" s="1" t="n">
+      <c r="E74">
         <v>3</v>
       </c>
-      <c r="F38" s="1" t="n">
+      <c r="F74">
         <v>20</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="n">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>21</v>
       </c>
-      <c r="B39" s="1" t="n">
+      <c r="B75">
         <v>44</v>
       </c>
-      <c r="C39" s="1" t="n">
+      <c r="C75">
         <v>13</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D75">
         <v>18</v>
       </c>
-      <c r="E39" s="1" t="n">
+      <c r="E75">
         <v>27</v>
       </c>
-      <c r="F39" s="1" t="n">
+      <c r="F75">
         <v>18</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="n">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>15</v>
       </c>
-      <c r="B40" s="1" t="n">
+      <c r="B76">
         <v>6</v>
       </c>
-      <c r="C40" s="1" t="n">
+      <c r="C76">
         <v>2</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D76">
         <v>14</v>
       </c>
-      <c r="E40" s="1" t="n">
+      <c r="E76">
         <v>8</v>
       </c>
-      <c r="F40" s="1" t="n">
+      <c r="F76">
         <v>2</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="n">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="n">
+      <c r="B77">
         <v>3</v>
       </c>
-      <c r="C41" s="1" t="n">
+      <c r="C77">
         <v>43</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D77">
         <v>7</v>
       </c>
-      <c r="E41" s="1" t="n">
+      <c r="E77">
         <v>42</v>
       </c>
-      <c r="F41" s="1" t="n">
+      <c r="F77">
         <v>20</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="n">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>1</v>
       </c>
-      <c r="B42" s="1" t="n">
+      <c r="B78">
         <v>24</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="C78">
         <v>28</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D78">
         <v>31</v>
       </c>
-      <c r="E42" s="1" t="n">
+      <c r="E78">
         <v>22</v>
       </c>
-      <c r="F42" s="1" t="n">
+      <c r="F78">
         <v>4</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>3</v>
       </c>
-      <c r="B43" s="1" t="n">
+      <c r="B79">
         <v>40</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="C79">
         <v>10</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D79">
         <v>34</v>
       </c>
-      <c r="E43" s="1" t="n">
+      <c r="E79">
         <v>25</v>
       </c>
-      <c r="F43" s="1" t="n">
+      <c r="F79">
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>23</v>
       </c>
-      <c r="B44" s="1" t="n">
+      <c r="B80">
         <v>40</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="C80">
         <v>10</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D80">
         <v>17</v>
       </c>
-      <c r="E44" s="1" t="n">
+      <c r="E80">
         <v>14</v>
       </c>
-      <c r="F44" s="1" t="n">
+      <c r="F80">
         <v>20</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
         <v>25</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B81">
         <v>43</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="C81">
         <v>24</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D81">
         <v>28</v>
       </c>
-      <c r="E45" s="1" t="n">
+      <c r="E81">
         <v>15</v>
       </c>
-      <c r="F45" s="1" t="n">
+      <c r="F81">
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>36</v>
       </c>
-      <c r="B46" s="1" t="n">
+      <c r="B82">
         <v>26</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="C82">
         <v>44</v>
       </c>
-      <c r="D46" s="1" t="n">
+      <c r="D82">
         <v>27</v>
       </c>
-      <c r="E46" s="1" t="n">
+      <c r="E82">
         <v>13</v>
       </c>
-      <c r="F46" s="1" t="n">
+      <c r="F82">
         <v>9</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="n">
+      <c r="B83">
         <v>32</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="C83">
         <v>2</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D83">
         <v>34</v>
       </c>
-      <c r="E47" s="1" t="n">
+      <c r="E83">
         <v>21</v>
       </c>
-      <c r="F47" s="1" t="n">
+      <c r="F83">
         <v>6</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>29</v>
       </c>
-      <c r="B48" s="1" t="n">
+      <c r="B84">
         <v>2</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="C84">
         <v>19</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D84">
         <v>12</v>
       </c>
-      <c r="E48" s="1" t="n">
+      <c r="E84">
         <v>30</v>
       </c>
-      <c r="F48" s="1" t="n">
+      <c r="F84">
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="n">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
         <v>14</v>
       </c>
-      <c r="B49" s="1" t="n">
+      <c r="B85">
         <v>16</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="C85">
         <v>39</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D85">
         <v>36</v>
       </c>
-      <c r="E49" s="1" t="n">
+      <c r="E85">
         <v>27</v>
       </c>
-      <c r="F49" s="1" t="n">
+      <c r="F85">
         <v>2</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="n">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
         <v>19</v>
       </c>
-      <c r="B50" s="1" t="n">
+      <c r="B86">
         <v>7</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="C86">
         <v>2</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D86">
         <v>21</v>
       </c>
-      <c r="E50" s="1" t="n">
+      <c r="E86">
         <v>12</v>
       </c>
-      <c r="F50" s="1" t="n">
+      <c r="F86">
         <v>2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="n">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
         <v>43</v>
       </c>
-      <c r="B51" s="1" t="n">
+      <c r="B87">
         <v>13</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="C87">
         <v>15</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D87">
         <v>29</v>
       </c>
-      <c r="E51" s="1" t="n">
+      <c r="E87">
         <v>36</v>
       </c>
-      <c r="F51" s="1" t="n">
+      <c r="F87">
         <v>16</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="n">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
         <v>13</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B88">
         <v>41</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="C88">
         <v>7</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D88">
         <v>28</v>
       </c>
-      <c r="E52" s="1" t="n">
+      <c r="E88">
         <v>42</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="F88">
         <v>4</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
         <v>14</v>
       </c>
-      <c r="B53" s="1" t="n">
+      <c r="B89">
         <v>29</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="C89">
         <v>33</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D89">
         <v>44</v>
       </c>
-      <c r="E53" s="1" t="n">
+      <c r="E89">
         <v>10</v>
       </c>
-      <c r="F53" s="1" t="n">
+      <c r="F89">
         <v>16</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="n">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
         <v>6</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B90">
         <v>13</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="C90">
         <v>5</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D90">
         <v>43</v>
       </c>
-      <c r="E54" s="1" t="n">
+      <c r="E90">
         <v>22</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="F90">
         <v>11</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="n">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
         <v>4</v>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B91">
         <v>42</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="C91">
         <v>14</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D91">
         <v>39</v>
       </c>
-      <c r="E55" s="1" t="n">
+      <c r="E91">
         <v>24</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="F91">
         <v>6</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="n">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>16</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B92">
         <v>25</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="C92">
         <v>24</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D92">
         <v>31</v>
       </c>
-      <c r="E56" s="1" t="n">
+      <c r="E92">
         <v>4</v>
       </c>
-      <c r="F56" s="1" t="n">
+      <c r="F92">
         <v>3</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="n">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>25</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B93">
         <v>41</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="C93">
         <v>18</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D93">
         <v>36</v>
       </c>
-      <c r="E57" s="1" t="n">
+      <c r="E93">
         <v>22</v>
       </c>
-      <c r="F57" s="1" t="n">
+      <c r="F93">
         <v>20</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="n">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>40</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B94">
         <v>4</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="C94">
         <v>20</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D94">
         <v>32</v>
       </c>
-      <c r="E58" s="1" t="n">
+      <c r="E94">
         <v>7</v>
       </c>
-      <c r="F58" s="1" t="n">
+      <c r="F94">
         <v>4</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="n">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
         <v>37</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B95">
         <v>20</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="C95">
         <v>24</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D95">
         <v>1</v>
       </c>
-      <c r="E59" s="1" t="n">
+      <c r="E95">
         <v>25</v>
       </c>
-      <c r="F59" s="1" t="n">
+      <c r="F95">
         <v>11</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="n">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>12</v>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B96">
         <v>25</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="C96">
         <v>7</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D96">
         <v>34</v>
       </c>
-      <c r="E60" s="1" t="n">
+      <c r="E96">
         <v>3</v>
       </c>
-      <c r="F60" s="1" t="n">
+      <c r="F96">
         <v>8</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="n">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
         <v>33</v>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B97">
         <v>43</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="C97">
         <v>10</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D97">
         <v>40</v>
       </c>
-      <c r="E61" s="1" t="n">
+      <c r="E97">
         <v>15</v>
       </c>
-      <c r="F61" s="1" t="n">
+      <c r="F97">
         <v>5</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="n">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
         <v>10</v>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B98">
         <v>34</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="C98">
         <v>1</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D98">
         <v>41</v>
       </c>
-      <c r="E62" s="1" t="n">
+      <c r="E98">
         <v>40</v>
       </c>
-      <c r="F62" s="1" t="n">
+      <c r="F98">
         <v>6</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="n">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
         <v>20</v>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B99">
         <v>29</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="C99">
         <v>22</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D99">
         <v>16</v>
       </c>
-      <c r="E63" s="1" t="n">
+      <c r="E99">
         <v>42</v>
       </c>
-      <c r="F63" s="1" t="n">
+      <c r="F99">
         <v>1</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="n">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>13</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B100">
         <v>31</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="C100">
         <v>39</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D100">
         <v>17</v>
       </c>
-      <c r="E64" s="1" t="n">
+      <c r="E100">
         <v>14</v>
       </c>
-      <c r="F64" s="1" t="n">
+      <c r="F100">
         <v>14</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="n">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>15</v>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B101">
         <v>40</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="C101">
         <v>39</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D101">
         <v>29</v>
       </c>
-      <c r="E65" s="1" t="n">
+      <c r="E101">
         <v>5</v>
       </c>
-      <c r="F65" s="1" t="n">
+      <c r="F101">
         <v>17</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="n">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>5</v>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B102">
         <v>24</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="C102">
         <v>44</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D102">
         <v>32</v>
       </c>
-      <c r="E66" s="1" t="n">
+      <c r="E102">
         <v>8</v>
       </c>
-      <c r="F66" s="1" t="n">
+      <c r="F102">
         <v>9</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="n">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
         <v>43</v>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B103">
         <v>8</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="C103">
         <v>41</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D103">
         <v>12</v>
       </c>
-      <c r="E67" s="1" t="n">
+      <c r="E103">
         <v>11</v>
       </c>
-      <c r="F67" s="1" t="n">
+      <c r="F103">
         <v>14</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="n">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
         <v>19</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B104">
         <v>9</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="C104">
         <v>25</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D104">
         <v>17</v>
       </c>
-      <c r="E68" s="1" t="n">
+      <c r="E104">
         <v>15</v>
       </c>
-      <c r="F68" s="1" t="n">
+      <c r="F104">
         <v>4</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="n">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
         <v>8</v>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B105">
         <v>33</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="C105">
         <v>32</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D105">
         <v>3</v>
       </c>
-      <c r="E69" s="1" t="n">
+      <c r="E105">
         <v>12</v>
       </c>
-      <c r="F69" s="1" t="n">
+      <c r="F105">
         <v>6</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="n">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
         <v>41</v>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B106">
         <v>15</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="C106">
         <v>6</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D106">
         <v>32</v>
       </c>
-      <c r="E70" s="1" t="n">
+      <c r="E106">
         <v>21</v>
       </c>
-      <c r="F70" s="1" t="n">
+      <c r="F106">
         <v>7</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="n">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
         <v>22</v>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B107">
         <v>44</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="C107">
         <v>7</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D107">
         <v>33</v>
       </c>
-      <c r="E71" s="1" t="n">
+      <c r="E107">
         <v>25</v>
       </c>
-      <c r="F71" s="1" t="n">
+      <c r="F107">
         <v>20</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="n">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>18</v>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B108">
         <v>40</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="C108">
         <v>26</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="D108">
         <v>13</v>
       </c>
-      <c r="E72" s="1" t="n">
+      <c r="E108">
         <v>20</v>
       </c>
-      <c r="F72" s="1" t="n">
+      <c r="F108">
         <v>19</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="1" t="n">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>18</v>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B109">
         <v>33</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="C109">
         <v>19</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="D109">
         <v>5</v>
       </c>
-      <c r="E73" s="1" t="n">
+      <c r="E109">
         <v>28</v>
       </c>
-      <c r="F73" s="1" t="n">
+      <c r="F109">
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="n">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>33</v>
       </c>
-      <c r="B74" s="1" t="n">
+      <c r="B110">
         <v>26</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="C110">
         <v>35</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D110">
         <v>29</v>
       </c>
-      <c r="E74" s="1" t="n">
+      <c r="E110">
         <v>19</v>
       </c>
-      <c r="F74" s="1" t="n">
+      <c r="F110">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>